--- a/SampleDataset.xlsx
+++ b/SampleDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anirudh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB893C2-A0FE-43DC-A182-A5435184ACFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E0C5C-91B8-42F2-A5BE-7B3068BC6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>turbo</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>bmw</t>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:Z206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Z206"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,82 +668,82 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1543,7 +1543,7 @@
         <v>22</v>
       </c>
       <c r="Z11" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -2111,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -2230,16 +2230,16 @@
         <v>1488</v>
       </c>
       <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
         <v>24</v>
-      </c>
-      <c r="P20" t="s">
-        <v>25</v>
       </c>
       <c r="Q20">
         <v>61</v>
       </c>
       <c r="R20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S20">
         <v>2.91</v>
@@ -2274,7 +2274,7 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S21">
         <v>3.03</v>
@@ -2354,7 +2354,7 @@
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>90</v>
       </c>
       <c r="R22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S22">
         <v>3.03</v>
@@ -2434,7 +2434,7 @@
         <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>90</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S23">
         <v>2.97</v>
@@ -2514,7 +2514,7 @@
         <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>90</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S24">
         <v>2.97</v>
@@ -2594,7 +2594,7 @@
         <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>90</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S26">
         <v>2.97</v>
@@ -2754,7 +2754,7 @@
         <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S27">
         <v>2.97</v>
@@ -2834,7 +2834,7 @@
         <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>90</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S28">
         <v>2.97</v>
@@ -2914,7 +2914,7 @@
         <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -2994,7 +2994,7 @@
         <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -3039,7 +3039,7 @@
         <v>122</v>
       </c>
       <c r="R30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S30">
         <v>3.34</v>
@@ -3074,7 +3074,7 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>156</v>
       </c>
       <c r="R31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S31">
         <v>3.6</v>
@@ -3154,7 +3154,7 @@
         <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>92</v>
       </c>
       <c r="R32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S32">
         <v>2.91</v>
@@ -3234,7 +3234,7 @@
         <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -3279,7 +3279,7 @@
         <v>92</v>
       </c>
       <c r="R33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S33">
         <v>2.91</v>
@@ -3314,7 +3314,7 @@
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>79</v>
       </c>
       <c r="R34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S34">
         <v>2.91</v>
@@ -3394,7 +3394,7 @@
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>92</v>
       </c>
       <c r="R35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S35">
         <v>2.91</v>
@@ -3474,7 +3474,7 @@
         <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="R36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S36">
         <v>2.91</v>
@@ -3554,7 +3554,7 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>92</v>
       </c>
       <c r="R37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S37">
         <v>2.91</v>
@@ -3634,7 +3634,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>92</v>
       </c>
       <c r="R38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S38">
         <v>2.92</v>
@@ -3714,7 +3714,7 @@
         <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -3759,7 +3759,7 @@
         <v>110</v>
       </c>
       <c r="R39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S39">
         <v>3.15</v>
@@ -3794,7 +3794,7 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>110</v>
       </c>
       <c r="R40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S40">
         <v>3.15</v>
@@ -3874,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>110</v>
       </c>
       <c r="R41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S41">
         <v>3.15</v>
@@ -3954,7 +3954,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>110</v>
       </c>
       <c r="R42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S42">
         <v>3.15</v>
@@ -4034,7 +4034,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>110</v>
       </c>
       <c r="R44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S44">
         <v>3.15</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -4239,7 +4239,7 @@
         <v>111</v>
       </c>
       <c r="R45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S45">
         <v>3.31</v>
@@ -4271,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>90</v>
       </c>
       <c r="R46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S46">
         <v>3.03</v>
@@ -4343,7 +4343,7 @@
         <v>43</v>
       </c>
       <c r="Z46" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -4399,7 +4399,7 @@
         <v>90</v>
       </c>
       <c r="R47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S47">
         <v>3.03</v>
@@ -4423,7 +4423,7 @@
         <v>43</v>
       </c>
       <c r="Z47" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -4431,10 +4431,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>119</v>
       </c>
       <c r="R48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S48">
         <v>3.43</v>
@@ -4514,7 +4514,7 @@
         <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -4591,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -4671,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="P51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q51">
         <v>326</v>
@@ -4754,7 +4754,7 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>91</v>
       </c>
       <c r="R52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S52">
         <v>3.03</v>
@@ -4834,7 +4834,7 @@
         <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>91</v>
       </c>
       <c r="R53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S53">
         <v>3.03</v>
@@ -4914,7 +4914,7 @@
         <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>91</v>
       </c>
       <c r="R54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S54">
         <v>3.03</v>
@@ -4994,7 +4994,7 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -5039,7 +5039,7 @@
         <v>91</v>
       </c>
       <c r="R55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S55">
         <v>3.03</v>
@@ -5074,7 +5074,7 @@
         <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>91</v>
       </c>
       <c r="R56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S56">
         <v>3.08</v>
@@ -5154,7 +5154,7 @@
         <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -5190,7 +5190,7 @@
         <v>2380</v>
       </c>
       <c r="O57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P57" t="s">
         <v>3</v>
@@ -5199,13 +5199,13 @@
         <v>70</v>
       </c>
       <c r="R57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S57" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="T57" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="U57">
         <v>9.4</v>
@@ -5234,7 +5234,7 @@
         <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>2380</v>
       </c>
       <c r="O58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P58" t="s">
         <v>3</v>
@@ -5279,13 +5279,13 @@
         <v>70</v>
       </c>
       <c r="R58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S58" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="T58" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="U58">
         <v>9.4</v>
@@ -5314,7 +5314,7 @@
         <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>2385</v>
       </c>
       <c r="O59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P59" t="s">
         <v>3</v>
@@ -5359,13 +5359,13 @@
         <v>70</v>
       </c>
       <c r="R59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="T59" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="U59">
         <v>9.4</v>
@@ -5394,7 +5394,7 @@
         <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -5430,7 +5430,7 @@
         <v>2500</v>
       </c>
       <c r="O60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P60" t="s">
         <v>3</v>
@@ -5442,10 +5442,10 @@
         <v>9</v>
       </c>
       <c r="S60" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="T60" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="U60">
         <v>9.4</v>
@@ -5474,7 +5474,7 @@
         <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>122</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S61">
         <v>3.39</v>
@@ -5554,7 +5554,7 @@
         <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         <v>122</v>
       </c>
       <c r="R62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S62">
         <v>3.39</v>
@@ -5634,7 +5634,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -5679,7 +5679,7 @@
         <v>122</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S63">
         <v>3.39</v>
@@ -5714,7 +5714,7 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>122</v>
       </c>
       <c r="R64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S64">
         <v>3.39</v>
@@ -5791,19 +5791,19 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -5839,7 +5839,7 @@
         <v>122</v>
       </c>
       <c r="R65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S65">
         <v>3.39</v>
@@ -5874,7 +5874,7 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>122</v>
       </c>
       <c r="R66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S66">
         <v>3.39</v>
@@ -5954,7 +5954,7 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -6031,13 +6031,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
@@ -6079,7 +6079,7 @@
         <v>134</v>
       </c>
       <c r="R68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S68">
         <v>3.43</v>
@@ -6114,10 +6114,10 @@
         <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
         <v>20</v>
@@ -6159,7 +6159,7 @@
         <v>183</v>
       </c>
       <c r="R69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S69">
         <v>3.58</v>
@@ -6194,10 +6194,10 @@
         <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
         <v>20</v>
@@ -6239,7 +6239,7 @@
         <v>183</v>
       </c>
       <c r="R70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S70">
         <v>3.58</v>
@@ -6274,10 +6274,10 @@
         <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
         <v>20</v>
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -6319,7 +6319,7 @@
         <v>183</v>
       </c>
       <c r="R71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S71">
         <v>3.58</v>
@@ -6354,10 +6354,10 @@
         <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
         <v>20</v>
@@ -6399,7 +6399,7 @@
         <v>183</v>
       </c>
       <c r="R72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S72">
         <v>3.58</v>
@@ -6431,10 +6431,10 @@
         <v>-1</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -6473,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="P73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q73">
         <v>234</v>
@@ -6514,7 +6514,7 @@
         <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>11</v>
       </c>
       <c r="P74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q74">
         <v>234</v>
@@ -6591,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>11</v>
       </c>
       <c r="P75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q75">
         <v>308</v>
@@ -6671,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -6713,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="P76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q76">
         <v>304</v>
@@ -6751,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -6879,7 +6879,7 @@
         <v>92</v>
       </c>
       <c r="R78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S78">
         <v>2.97</v>
@@ -6914,7 +6914,7 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>92</v>
       </c>
       <c r="R79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S79">
         <v>2.97</v>
@@ -6994,7 +6994,7 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>92</v>
       </c>
       <c r="R80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S80">
         <v>2.97</v>
@@ -7074,7 +7074,7 @@
         <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>98</v>
       </c>
       <c r="R81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S81">
         <v>3.03</v>
@@ -7154,7 +7154,7 @@
         <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>110</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S82">
         <v>3.17</v>
@@ -7234,7 +7234,7 @@
         <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>122</v>
       </c>
       <c r="R83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S83">
         <v>3.35</v>
@@ -7311,10 +7311,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>156</v>
       </c>
       <c r="R84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S84">
         <v>3.58</v>
@@ -7391,10 +7391,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -7439,7 +7439,7 @@
         <v>156</v>
       </c>
       <c r="R85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S85">
         <v>3.59</v>
@@ -7471,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -7519,7 +7519,7 @@
         <v>156</v>
       </c>
       <c r="R86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S86">
         <v>3.59</v>
@@ -7554,7 +7554,7 @@
         <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>122</v>
       </c>
       <c r="R87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S87">
         <v>3.35</v>
@@ -7634,7 +7634,7 @@
         <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -7679,7 +7679,7 @@
         <v>122</v>
       </c>
       <c r="R88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S88">
         <v>3.35</v>
@@ -7714,7 +7714,7 @@
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -7759,7 +7759,7 @@
         <v>110</v>
       </c>
       <c r="R89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S89">
         <v>3.17</v>
@@ -7794,7 +7794,7 @@
         <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -7839,7 +7839,7 @@
         <v>110</v>
       </c>
       <c r="R90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S90">
         <v>3.17</v>
@@ -7874,7 +7874,7 @@
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>97</v>
       </c>
       <c r="R91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S91">
         <v>3.15</v>
@@ -7954,10 +7954,10 @@
         <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
@@ -7999,7 +7999,7 @@
         <v>103</v>
       </c>
       <c r="R92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S92">
         <v>2.99</v>
@@ -8034,7 +8034,7 @@
         <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>97</v>
       </c>
       <c r="R93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S93">
         <v>3.15</v>
@@ -8114,7 +8114,7 @@
         <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -8159,7 +8159,7 @@
         <v>97</v>
       </c>
       <c r="R94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S94">
         <v>3.15</v>
@@ -8194,7 +8194,7 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -8239,7 +8239,7 @@
         <v>97</v>
       </c>
       <c r="R95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S95">
         <v>3.15</v>
@@ -8274,7 +8274,7 @@
         <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -8319,7 +8319,7 @@
         <v>97</v>
       </c>
       <c r="R96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S96">
         <v>3.15</v>
@@ -8354,7 +8354,7 @@
         <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -8399,7 +8399,7 @@
         <v>97</v>
       </c>
       <c r="R97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S97">
         <v>3.15</v>
@@ -8434,7 +8434,7 @@
         <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -8479,7 +8479,7 @@
         <v>97</v>
       </c>
       <c r="R98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S98">
         <v>3.15</v>
@@ -8514,7 +8514,7 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>97</v>
       </c>
       <c r="R99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S99">
         <v>3.15</v>
@@ -8594,7 +8594,7 @@
         <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -8606,7 +8606,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -8639,7 +8639,7 @@
         <v>97</v>
       </c>
       <c r="R100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S100">
         <v>3.15</v>
@@ -8674,7 +8674,7 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>120</v>
       </c>
       <c r="R101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S101">
         <v>3.33</v>
@@ -8754,7 +8754,7 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -8799,7 +8799,7 @@
         <v>120</v>
       </c>
       <c r="R102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S102">
         <v>3.33</v>
@@ -8834,7 +8834,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -8914,7 +8914,7 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>231</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -9314,7 +9314,7 @@
         <v>161</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>3020</v>
       </c>
       <c r="O109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P109" t="s">
         <v>8</v>
@@ -9394,10 +9394,10 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
         <v>20</v>
@@ -9430,7 +9430,7 @@
         <v>3197</v>
       </c>
       <c r="O110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P110" t="s">
         <v>8</v>
@@ -9439,7 +9439,7 @@
         <v>152</v>
       </c>
       <c r="R110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S110">
         <v>3.7</v>
@@ -9471,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -9510,7 +9510,7 @@
         <v>3230</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P111" t="s">
         <v>8</v>
@@ -9551,13 +9551,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E112" t="s">
         <v>20</v>
@@ -9590,7 +9590,7 @@
         <v>3430</v>
       </c>
       <c r="O112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P112" t="s">
         <v>8</v>
@@ -9599,7 +9599,7 @@
         <v>152</v>
       </c>
       <c r="R112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S112">
         <v>3.7</v>
@@ -9634,7 +9634,7 @@
         <v>161</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -9670,7 +9670,7 @@
         <v>3075</v>
       </c>
       <c r="O113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P113" t="s">
         <v>8</v>
@@ -9714,10 +9714,10 @@
         <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
@@ -9750,7 +9750,7 @@
         <v>3252</v>
       </c>
       <c r="O114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P114" t="s">
         <v>8</v>
@@ -9759,7 +9759,7 @@
         <v>152</v>
       </c>
       <c r="R114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S114">
         <v>3.7</v>
@@ -9791,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -9830,7 +9830,7 @@
         <v>3285</v>
       </c>
       <c r="O115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P115" t="s">
         <v>8</v>
@@ -9871,13 +9871,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E116" t="s">
         <v>20</v>
@@ -9910,7 +9910,7 @@
         <v>3485</v>
       </c>
       <c r="O116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P116" t="s">
         <v>8</v>
@@ -9919,7 +9919,7 @@
         <v>152</v>
       </c>
       <c r="R116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S116">
         <v>3.7</v>
@@ -9954,7 +9954,7 @@
         <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -9990,7 +9990,7 @@
         <v>3075</v>
       </c>
       <c r="O117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P117" t="s">
         <v>8</v>
@@ -10034,10 +10034,10 @@
         <v>161</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
@@ -10070,7 +10070,7 @@
         <v>3252</v>
       </c>
       <c r="O118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P118" t="s">
         <v>8</v>
@@ -10079,7 +10079,7 @@
         <v>152</v>
       </c>
       <c r="R118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S118">
         <v>3.7</v>
@@ -10114,7 +10114,7 @@
         <v>161</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -10150,7 +10150,7 @@
         <v>3130</v>
       </c>
       <c r="O119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P119" t="s">
         <v>8</v>
@@ -10194,7 +10194,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>90</v>
       </c>
       <c r="R120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S120">
         <v>2.97</v>
@@ -10274,7 +10274,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -10319,7 +10319,7 @@
         <v>98</v>
       </c>
       <c r="R121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S121">
         <v>3.03</v>
@@ -10354,7 +10354,7 @@
         <v>154</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -10399,7 +10399,7 @@
         <v>90</v>
       </c>
       <c r="R122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S122">
         <v>2.97</v>
@@ -10434,7 +10434,7 @@
         <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -10479,7 +10479,7 @@
         <v>90</v>
       </c>
       <c r="R123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S123">
         <v>2.97</v>
@@ -10514,7 +10514,7 @@
         <v>154</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -10559,7 +10559,7 @@
         <v>98</v>
       </c>
       <c r="R124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S124">
         <v>2.97</v>
@@ -10594,7 +10594,7 @@
         <v>74</v>
       </c>
       <c r="C125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -10639,7 +10639,7 @@
         <v>122</v>
       </c>
       <c r="R125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S125">
         <v>3.35</v>
@@ -10671,10 +10671,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -10719,7 +10719,7 @@
         <v>156</v>
       </c>
       <c r="R126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S126">
         <v>3.59</v>
@@ -10754,7 +10754,7 @@
         <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -10831,10 +10831,10 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -10846,13 +10846,13 @@
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>89.5</v>
@@ -10870,7 +10870,7 @@
         <v>2756</v>
       </c>
       <c r="O128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P128" t="s">
         <v>12</v>
@@ -10911,10 +10911,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -10926,13 +10926,13 @@
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H129" t="s">
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>89.5</v>
@@ -10950,7 +10950,7 @@
         <v>2756</v>
       </c>
       <c r="O129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P129" t="s">
         <v>12</v>
@@ -10991,10 +10991,10 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>89.5</v>
@@ -11030,7 +11030,7 @@
         <v>2800</v>
       </c>
       <c r="O130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P130" t="s">
         <v>12</v>
@@ -11071,10 +11071,10 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -11110,10 +11110,10 @@
         <v>3366</v>
       </c>
       <c r="O131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q131">
         <v>203</v>
@@ -11143,7 +11143,7 @@
         <v>28</v>
       </c>
       <c r="Z131" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -11211,10 +11211,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V132" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="W132" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="X132">
         <v>23</v>
@@ -11231,10 +11231,10 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -11291,10 +11291,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V133" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="W133" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="X133">
         <v>23</v>
@@ -11314,7 +11314,7 @@
         <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -11394,7 +11394,7 @@
         <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -11474,7 +11474,7 @@
         <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -11554,7 +11554,7 @@
         <v>104</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -11634,7 +11634,7 @@
         <v>150</v>
       </c>
       <c r="C138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -11714,7 +11714,7 @@
         <v>104</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -11794,7 +11794,7 @@
         <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -11830,7 +11830,7 @@
         <v>2050</v>
       </c>
       <c r="O140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P140" t="s">
         <v>8</v>
@@ -11839,7 +11839,7 @@
         <v>97</v>
       </c>
       <c r="R140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S140">
         <v>3.62</v>
@@ -11874,7 +11874,7 @@
         <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -11910,7 +11910,7 @@
         <v>2120</v>
       </c>
       <c r="O141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P141" t="s">
         <v>8</v>
@@ -11919,7 +11919,7 @@
         <v>108</v>
       </c>
       <c r="R141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S141">
         <v>3.62</v>
@@ -11954,7 +11954,7 @@
         <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -11990,7 +11990,7 @@
         <v>2240</v>
       </c>
       <c r="O142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P142" t="s">
         <v>8</v>
@@ -11999,7 +11999,7 @@
         <v>108</v>
       </c>
       <c r="R142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S142">
         <v>3.62</v>
@@ -12034,7 +12034,7 @@
         <v>102</v>
       </c>
       <c r="C143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -12070,7 +12070,7 @@
         <v>2145</v>
       </c>
       <c r="O143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P143" t="s">
         <v>8</v>
@@ -12079,7 +12079,7 @@
         <v>108</v>
       </c>
       <c r="R143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S143">
         <v>3.62</v>
@@ -12114,7 +12114,7 @@
         <v>102</v>
       </c>
       <c r="C144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -12150,7 +12150,7 @@
         <v>2190</v>
       </c>
       <c r="O144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P144" t="s">
         <v>8</v>
@@ -12159,7 +12159,7 @@
         <v>108</v>
       </c>
       <c r="R144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S144">
         <v>3.62</v>
@@ -12194,7 +12194,7 @@
         <v>102</v>
       </c>
       <c r="C145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -12230,7 +12230,7 @@
         <v>2340</v>
       </c>
       <c r="O145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P145" t="s">
         <v>8</v>
@@ -12274,7 +12274,7 @@
         <v>102</v>
       </c>
       <c r="C146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -12310,7 +12310,7 @@
         <v>2385</v>
       </c>
       <c r="O146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P146" t="s">
         <v>8</v>
@@ -12319,7 +12319,7 @@
         <v>108</v>
       </c>
       <c r="R146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S146">
         <v>3.62</v>
@@ -12354,7 +12354,7 @@
         <v>102</v>
       </c>
       <c r="C147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -12390,7 +12390,7 @@
         <v>2510</v>
       </c>
       <c r="O147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P147" t="s">
         <v>8</v>
@@ -12434,7 +12434,7 @@
         <v>89</v>
       </c>
       <c r="C148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>2290</v>
       </c>
       <c r="O148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P148" t="s">
         <v>8</v>
@@ -12479,7 +12479,7 @@
         <v>108</v>
       </c>
       <c r="R148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S148">
         <v>3.62</v>
@@ -12514,7 +12514,7 @@
         <v>89</v>
       </c>
       <c r="C149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -12550,7 +12550,7 @@
         <v>2455</v>
       </c>
       <c r="O149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P149" t="s">
         <v>8</v>
@@ -12594,7 +12594,7 @@
         <v>85</v>
       </c>
       <c r="C150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -12630,7 +12630,7 @@
         <v>2420</v>
       </c>
       <c r="O150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P150" t="s">
         <v>8</v>
@@ -12639,7 +12639,7 @@
         <v>108</v>
       </c>
       <c r="R150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S150">
         <v>3.62</v>
@@ -12674,7 +12674,7 @@
         <v>85</v>
       </c>
       <c r="C151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -12710,7 +12710,7 @@
         <v>2650</v>
       </c>
       <c r="O151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P151" t="s">
         <v>8</v>
@@ -12754,7 +12754,7 @@
         <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -12799,7 +12799,7 @@
         <v>92</v>
       </c>
       <c r="R152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S152">
         <v>3.05</v>
@@ -12834,7 +12834,7 @@
         <v>87</v>
       </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>92</v>
       </c>
       <c r="R153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S153">
         <v>3.05</v>
@@ -12914,7 +12914,7 @@
         <v>74</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -12959,7 +12959,7 @@
         <v>92</v>
       </c>
       <c r="R154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S154">
         <v>3.05</v>
@@ -12994,7 +12994,7 @@
         <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -13039,7 +13039,7 @@
         <v>92</v>
       </c>
       <c r="R155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S155">
         <v>3.05</v>
@@ -13074,7 +13074,7 @@
         <v>81</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -13119,7 +13119,7 @@
         <v>92</v>
       </c>
       <c r="R156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S156">
         <v>3.05</v>
@@ -13154,7 +13154,7 @@
         <v>91</v>
       </c>
       <c r="C157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -13199,7 +13199,7 @@
         <v>92</v>
       </c>
       <c r="R157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S157">
         <v>3.05</v>
@@ -13234,7 +13234,7 @@
         <v>91</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -13279,7 +13279,7 @@
         <v>98</v>
       </c>
       <c r="R158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S158">
         <v>3.19</v>
@@ -13314,7 +13314,7 @@
         <v>91</v>
       </c>
       <c r="C159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -13359,7 +13359,7 @@
         <v>98</v>
       </c>
       <c r="R159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S159">
         <v>3.19</v>
@@ -13394,10 +13394,10 @@
         <v>91</v>
       </c>
       <c r="C160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -13439,7 +13439,7 @@
         <v>110</v>
       </c>
       <c r="R160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S160">
         <v>3.27</v>
@@ -13474,10 +13474,10 @@
         <v>91</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -13519,7 +13519,7 @@
         <v>110</v>
       </c>
       <c r="R161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S161">
         <v>3.27</v>
@@ -13554,7 +13554,7 @@
         <v>91</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>98</v>
       </c>
       <c r="R162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S162">
         <v>3.19</v>
@@ -13634,7 +13634,7 @@
         <v>91</v>
       </c>
       <c r="C163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -13679,7 +13679,7 @@
         <v>98</v>
       </c>
       <c r="R163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S163">
         <v>3.19</v>
@@ -13714,7 +13714,7 @@
         <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -13759,7 +13759,7 @@
         <v>98</v>
       </c>
       <c r="R164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S164">
         <v>3.19</v>
@@ -13794,7 +13794,7 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -13839,7 +13839,7 @@
         <v>98</v>
       </c>
       <c r="R165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S165">
         <v>3.19</v>
@@ -13874,7 +13874,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -13919,7 +13919,7 @@
         <v>98</v>
       </c>
       <c r="R166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S166">
         <v>3.19</v>
@@ -13954,7 +13954,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -14034,7 +14034,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -14114,7 +14114,7 @@
         <v>134</v>
       </c>
       <c r="C169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -14126,7 +14126,7 @@
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169" t="s">
         <v>5</v>
@@ -14194,7 +14194,7 @@
         <v>134</v>
       </c>
       <c r="C170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -14206,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H170" t="s">
         <v>5</v>
@@ -14274,7 +14274,7 @@
         <v>134</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
@@ -14354,7 +14354,7 @@
         <v>134</v>
       </c>
       <c r="C172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -14366,7 +14366,7 @@
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
@@ -14434,7 +14434,7 @@
         <v>134</v>
       </c>
       <c r="C173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -14514,7 +14514,7 @@
         <v>134</v>
       </c>
       <c r="C174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -14594,7 +14594,7 @@
         <v>65</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -14674,10 +14674,10 @@
         <v>65</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E176" t="s">
         <v>20</v>
@@ -14719,7 +14719,7 @@
         <v>110</v>
       </c>
       <c r="R176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S176">
         <v>3.27</v>
@@ -14754,7 +14754,7 @@
         <v>65</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -14834,7 +14834,7 @@
         <v>65</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -14914,7 +14914,7 @@
         <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -14994,7 +14994,7 @@
         <v>197</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -15074,7 +15074,7 @@
         <v>197</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -15154,7 +15154,7 @@
         <v>90</v>
       </c>
       <c r="C182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -15231,10 +15231,10 @@
         <v>-1</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -15314,10 +15314,10 @@
         <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -15359,7 +15359,7 @@
         <v>97</v>
       </c>
       <c r="R184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S184">
         <v>3.01</v>
@@ -15394,7 +15394,7 @@
         <v>122</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -15474,10 +15474,10 @@
         <v>94</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E186" t="s">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>97</v>
       </c>
       <c r="R186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S186">
         <v>3.01</v>
@@ -15554,7 +15554,7 @@
         <v>94</v>
       </c>
       <c r="C187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -15634,7 +15634,7 @@
         <v>94</v>
       </c>
       <c r="C188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -15714,10 +15714,10 @@
         <v>94</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D189" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E189" t="s">
         <v>20</v>
@@ -15759,7 +15759,7 @@
         <v>97</v>
       </c>
       <c r="R189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S189">
         <v>3.01</v>
@@ -15794,7 +15794,7 @@
         <v>94</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -15871,10 +15871,10 @@
         <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C191" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>256</v>
       </c>
       <c r="C192" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -16031,10 +16031,10 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C193" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D193" t="s">
         <v>1</v>
@@ -16111,13 +16111,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C194" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E194" t="s">
         <v>20</v>
@@ -16159,7 +16159,7 @@
         <v>97</v>
       </c>
       <c r="R194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S194">
         <v>3.01</v>
@@ -16191,10 +16191,10 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D195" t="s">
         <v>1</v>
@@ -16274,7 +16274,7 @@
         <v>103</v>
       </c>
       <c r="C196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D196" t="s">
         <v>1</v>
@@ -16354,7 +16354,7 @@
         <v>74</v>
       </c>
       <c r="C197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -16434,7 +16434,7 @@
         <v>103</v>
       </c>
       <c r="C198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D198" t="s">
         <v>1</v>
@@ -16514,7 +16514,7 @@
         <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D199" t="s">
         <v>1</v>
@@ -16594,7 +16594,7 @@
         <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -16674,7 +16674,7 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D201" t="s">
         <v>1</v>
@@ -16754,7 +16754,7 @@
         <v>95</v>
       </c>
       <c r="C202" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D202" t="s">
         <v>1</v>
@@ -16834,7 +16834,7 @@
         <v>95</v>
       </c>
       <c r="C203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D203" t="s">
         <v>1</v>
@@ -16914,7 +16914,7 @@
         <v>95</v>
       </c>
       <c r="C204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D204" t="s">
         <v>1</v>
@@ -16994,10 +16994,10 @@
         <v>95</v>
       </c>
       <c r="C205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E205" t="s">
         <v>20</v>
@@ -17039,7 +17039,7 @@
         <v>145</v>
       </c>
       <c r="R205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S205">
         <v>3.01</v>
@@ -17074,7 +17074,7 @@
         <v>95</v>
       </c>
       <c r="C206" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D206" t="s">
         <v>1</v>
